--- a/mappings/package_pin_v1.10/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_pin_v1.10/transformation/conceptual_mappings.xlsx
@@ -433,7 +433,7 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:Name</t>
   </si>
   <si>
-    <t>epo:PlannedProcurementPart /rdf:langString</t>
+    <t>epo:PlannedProcurementPart / rdf:langString</t>
   </si>
   <si>
     <t>?this dct:title ?value .</t>
